--- a/Data/FoodAid(Childcare).xlsx
+++ b/Data/FoodAid(Childcare).xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mivc6EXQvojNaLkxDpW8894Z5QvDg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7midFH/xTMTEgrBFLhjOk/21rFI6cw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +50,7 @@
     <t>Has the pandemic changed the school meals or snacks your center/program provides? If yes, how?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Does your center or program utilize subsidies and financial aid (ex. Child and Adult Care Food Program) to be able to offer meals or snacks?</t>
@@ -521,7 +521,7 @@
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1"/>
@@ -589,7 +589,7 @@
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
@@ -657,7 +657,7 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
